--- a/bean.xlsx
+++ b/bean.xlsx
@@ -102,6 +102,7 @@
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -138,6 +139,7 @@
       <color rgb="FF000000"/>
       <name val="黑体"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -315,12 +317,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.2279069767442"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.0418604651163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="19.4418604651163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.446511627907"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.9674418604651"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.3395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.9674418604651"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.5348837209302"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.0604651162791"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.8139534883721"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="34.9488372093023"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.5813953488372"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -460,17 +462,17 @@
   <dimension ref="A1:E65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.2279069767442"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.0418604651163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="19.4418604651163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.446511627907"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.9674418604651"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.3395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.9674418604651"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.5348837209302"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.0604651162791"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.8139534883721"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="34.9488372093023"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.5813953488372"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
